--- a/biology/Zoologie/Candoia_paulsoni/Candoia_paulsoni.xlsx
+++ b/biology/Zoologie/Candoia_paulsoni/Candoia_paulsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candoia paulsoni est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candoia paulsoni est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Moluques, dans les îles Talaud et aux Salomon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Moluques, dans les îles Talaud et aux Salomon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Candoia paulsoni mcdowelli Smith &amp; Chiszar, 2001
 Candoia paulsoni paulsoni (Stull, 1956)
 Candoia paulsoni rosadoi Smith &amp; Chiszar, 2001
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Paulson[3].  La sous-espèce Candoia paulsoni mcdowelli est nommée en l'honneur de Samuel Booker McDowell[3]. La sous-espèce Candoia paulsoni rosadoi est nommée en l'honneur de José P. Rosado[3]. La sous-espèce Candoia paulsoni sadlieri est nommée en l'honneur de Ross Allen Sadlier[3]. La sous-espèce Candoia paulsoni tasmai est nommée en l'honneur de Budiyanto Tasma[3]. La sous-espèce Candoia paulsoni vindumi est nommée en l'honneur de Jens Verner Vindum[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Paulson.  La sous-espèce Candoia paulsoni mcdowelli est nommée en l'honneur de Samuel Booker McDowell. La sous-espèce Candoia paulsoni rosadoi est nommée en l'honneur de José P. Rosado. La sous-espèce Candoia paulsoni sadlieri est nommée en l'honneur de Ross Allen Sadlier. La sous-espèce Candoia paulsoni tasmai est nommée en l'honneur de Budiyanto Tasma. La sous-espèce Candoia paulsoni vindumi est nommée en l'honneur de Jens Verner Vindum.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, Chiszar, Tepedelen &amp; van Breukelen, 2001 : A revision of bevelnosed boas (Candoia carinata complex) (Reptilia: Serpentes). Hamadryad, vol. 26, no 2, p. 283-315.
 Stull, 1956 : Description of a new subspecies of the boid snake, Enygrus carinatus. Copeia, vol. 1956, no 3, p. 185-186.</t>
